--- a/Upwork Directories.xlsx
+++ b/Upwork Directories.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="574">
   <si>
     <t>Name of Company</t>
   </si>
@@ -610,18 +610,6 @@
 (404) 305-8009 [FAX] </t>
   </si>
   <si>
-    <t xml:space="preserve">1905 Joseph E. Boone Blvd.
-Atlanta, GA 30314
-(404) 799-9652
-</t>
-  </si>
-  <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>Seckman</t>
-  </si>
-  <si>
     <t>CEO</t>
   </si>
   <si>
@@ -636,6 +624,1302 @@
   </si>
   <si>
     <t>infoMARR@marrinc.com</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Brush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1905 Joseph E. Boone Blvd.
+Atlanta, GA 30314
+(404) 799-9652
+</t>
+  </si>
+  <si>
+    <t>Doraville</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>office@hopehomesrecovery.org</t>
+  </si>
+  <si>
+    <t>Smyrna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1741 Spring Street
+Smyrna, GA 30080
+(678) 556-0840
+(877) 355-1141 (Toll Free)
+(678) 556-0481 [FAX] </t>
+  </si>
+  <si>
+    <t>http://www.hopehomesrecovery.org/</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Fisher-Sanders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2815 Clearview Place
+Doraville, GA 30340
+(678) 805-5100
+(800) 732-5430 (Toll Free)
+(770) 216-9398 [FAX] </t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>info@hopequestgroup.org</t>
+  </si>
+  <si>
+    <t>Woodstock</t>
+  </si>
+  <si>
+    <t>P.O. Box 2699
+Woodstock, GA 30188
+(678) 391-5950
+(678) 397-5959 [FAX]</t>
+  </si>
+  <si>
+    <t>http://www.hopequestgroup.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Director </t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Brothers</t>
+  </si>
+  <si>
+    <t>Lawrenceville</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
+    <t>Bagley</t>
+  </si>
+  <si>
+    <t>brett@purpletreatment.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">275 West Pike Street
+Lawrenceville, GA 30046
+(678) 805-5170
+(800) 732-5430 (Toll Free)
+(678) 376-8398 [FAX] </t>
+  </si>
+  <si>
+    <t>http://www.purpletreatment.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1611 Lawrenceville-Suwannee Road
+Lawrenceville, GA 30043
+(770) 962-8215
+(678) 868-1302 [FAX] </t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>mhfh@mindspring.com</t>
+  </si>
+  <si>
+    <t>http://www.maryhallfreedomhouse.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Hannover Park Road
+Suite 100
+Atlanta, GA 30350
+(770) 642-5500
+(770) 518-6677 </t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Simmons</t>
+  </si>
+  <si>
+    <t>4235 East Side Dr.
+Decatur, GA 30034
+(404) 286-0569
+(678) 596-9954</t>
+  </si>
+  <si>
+    <t>Decatur</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Barbarastargray@comcast.net</t>
+  </si>
+  <si>
+    <t>Marietta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399 Old Canton Road
+Marietta, GA 30068
+(770) 971-0179
+(770) 971-0179 [FAX] </t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Sartor</t>
+  </si>
+  <si>
+    <t>info@ridgeviewinstitute.com</t>
+  </si>
+  <si>
+    <t>http://www.ridgeviewinstitute.com/</t>
+  </si>
+  <si>
+    <t>3995 South Cobb Drive
+Smyrna, GA 30458
+(770) 249-2400
+(800)329-9775 [TOLL FREE]</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Strickland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive Director </t>
+  </si>
+  <si>
+    <t>rockdalehouse4men@comcast.net</t>
+  </si>
+  <si>
+    <t>Conyers</t>
+  </si>
+  <si>
+    <t>http://www.rockdalehouses.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1060 Scott Street
+Conyers, GA 30012
+(770) 483-3984
+(770) 483-3988 [Fax] </t>
+  </si>
+  <si>
+    <t>Virgil</t>
+  </si>
+  <si>
+    <t>Algee</t>
+  </si>
+  <si>
+    <t>http://www.oakhurstrecovery.org/</t>
+  </si>
+  <si>
+    <t>232 Eastlake Dr.
+Decatur, GA 30030
+(404) 371-0590
+(404)371-0577 [FAX]</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
+    <t>Kalb</t>
+  </si>
+  <si>
+    <t>reneekalb@comcast.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">995 Milstead Ave.
+Conyers, GA 30012
+(770) 483-0213
+(770) 483-0278 [Fax] </t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Friddle</t>
+  </si>
+  <si>
+    <t>bfriddle444@yahoo.com</t>
+  </si>
+  <si>
+    <t>Chamblee</t>
+  </si>
+  <si>
+    <t>5456 Peachtree Industrial Blvd. #601
+Chamblee, GA 30341
+(404) 557-9632</t>
+  </si>
+  <si>
+    <t>http://www.northsiderecovery.com/</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Herndon</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>taylor@safetynetrecovery.com</t>
+  </si>
+  <si>
+    <t>http://www.safetynetrecovery.com/</t>
+  </si>
+  <si>
+    <t>3656 Highlands Parkway SE
+Smyrna, GA 30082
+(770) 432-9774
+(770) 432-9775 [Fax]</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Sperling</t>
+  </si>
+  <si>
+    <t>csperling@standinc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4319 Covington Highway, Suite 117A
+Decatur, GA 30035
+(404) 288-4668
+(404) 288-4688 [FAX] </t>
+  </si>
+  <si>
+    <t>http://www.standinc.com/</t>
+  </si>
+  <si>
+    <t>Debbie</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>debbie@secondchanceatl.org</t>
+  </si>
+  <si>
+    <t>http://www.secondchanceatl.org/</t>
+  </si>
+  <si>
+    <t>7880 Kiverton Place
+Kennesaw, GA 30350
+(609) 517-9358</t>
+  </si>
+  <si>
+    <t>Bridgett</t>
+  </si>
+  <si>
+    <t>staff@stepbysteprecovery.org</t>
+  </si>
+  <si>
+    <t>http://www.stepbysteprecovery.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Plainview Drive, Suite 3
+Lawrenceville, GA 30045
+(678) 377-2323
+(678) 377-0277 [FAX] </t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>sstein@serenityoversuffering.com</t>
+  </si>
+  <si>
+    <t>http://www.serenityoversuffering.com/</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>tangu159@bellsouth.net</t>
+  </si>
+  <si>
+    <t>http://www.tangu.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.O. Box 55469
+Atlanta, GA 30308
+(404) 523-4599
+(404) 586-0645 </t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Bestwick</t>
+  </si>
+  <si>
+    <t>thbestwick@bellsouth.net</t>
+  </si>
+  <si>
+    <t>McDonough</t>
+  </si>
+  <si>
+    <t>http://www.shininglighthouse.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.O. Box 2557
+McDonough, GA 30253
+(678) 325-9025 </t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Acworth</t>
+  </si>
+  <si>
+    <t>info@sobermenliving.com</t>
+  </si>
+  <si>
+    <t>3330 Cobb Parkway NW
+#324-236
+Acworth, GA 30101
+(470) 253-4765
+(678) 310-1299 [FAX]</t>
+  </si>
+  <si>
+    <t>http://www.sobermenliving.com/</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Todd@thearches.org</t>
+  </si>
+  <si>
+    <t>http://www.thearches.org/</t>
+  </si>
+  <si>
+    <t>8343 Roswell Road #358
+Atlanta, GA 30350
+(404) 991-3575</t>
+  </si>
+  <si>
+    <t>robertjordan@theextension.org</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Director, Men’s Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1507 Church Street Extension NW
+Marietta, GA 30060
+(770) 590-9075 –Men’s program
+(770) 528-4852 – Women’s Program
+(770) 590-0912 [FAX] </t>
+  </si>
+  <si>
+    <t>http://www.theextension.org/</t>
+  </si>
+  <si>
+    <t>http://www.damascusroadrecovery.org/</t>
+  </si>
+  <si>
+    <t>Butch</t>
+  </si>
+  <si>
+    <t>Scruggs</t>
+  </si>
+  <si>
+    <t>butchscruggs@damascusroadrecovery.org</t>
+  </si>
+  <si>
+    <t>Covington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.O. Box 1555
+Covington, GA 30015
+(770) 787-1975
+(800) 232-5957 [FAX] </t>
+  </si>
+  <si>
+    <t>3205 Paces Park Dr.
+Decatur, GA 30033
+(404) 772-7699</t>
+  </si>
+  <si>
+    <t>http://www.thelaunchingpadrecovery.com/</t>
+  </si>
+  <si>
+    <t>tarek@thelaunchingpadrecovery.com</t>
+  </si>
+  <si>
+    <t>Tarek</t>
+  </si>
+  <si>
+    <t>Khalil</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Nicole@entirelyready.org</t>
+  </si>
+  <si>
+    <t>3828 Salem Road, Suite 3
+Covington, GA 30016
+(404) 314-1875
+(678) 712-9956 [FAX]</t>
+  </si>
+  <si>
+    <t>http://www.entirelyready.org/</t>
+  </si>
+  <si>
+    <t>kirk@powersoldit.com</t>
+  </si>
+  <si>
+    <t>Alpharetta</t>
+  </si>
+  <si>
+    <t>610 Rucker Road
+Alpharetta, GA 30004
+(678) 488-8851</t>
+  </si>
+  <si>
+    <t>Antious</t>
+  </si>
+  <si>
+    <t>Fears</t>
+  </si>
+  <si>
+    <t>tenah@tenahrecovery.com</t>
+  </si>
+  <si>
+    <t>Dawsonville</t>
+  </si>
+  <si>
+    <t>http://www.tenahrecovery.com/</t>
+  </si>
+  <si>
+    <t>32 Jack Heard Road, Suite 110
+Dawsonville, GA 30534
+(770) 601-2717
+(404) 630-5177</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>CEO, Founder</t>
+  </si>
+  <si>
+    <t>Admin@twentyfour7houseinc.com</t>
+  </si>
+  <si>
+    <t>http://www.twentyfour7houseinc.com/</t>
+  </si>
+  <si>
+    <t>Baxley</t>
+  </si>
+  <si>
+    <t>P.O. Box 354
+Baxley, GA 31515
+(912) 366-7777
+(912) 366-7798 [FAX]</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>Dobbins</t>
+  </si>
+  <si>
+    <t>admin@promiseofhopega.org</t>
+  </si>
+  <si>
+    <t>http://www.promiseofhopega.org/</t>
+  </si>
+  <si>
+    <t>Dudley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.O. Box 321
+Dudley, GA 31022
+(478) 676-4673
+(478) 676-4675 [FAX] </t>
+  </si>
+  <si>
+    <t>sandy@homesteadrecovery.com</t>
+  </si>
+  <si>
+    <t>Clarksville</t>
+  </si>
+  <si>
+    <t>http://www.homesteadrecovery.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3123 Alec Mtn. Road
+Clarksville, GA 30523
+(706) 754-3367
+</t>
+  </si>
+  <si>
+    <t>Cochran</t>
+  </si>
+  <si>
+    <t>106 Nesmith Road
+Cochran, GA 31014
+(478) 934-0774</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Keener</t>
+  </si>
+  <si>
+    <t>team@livingrecovery.org</t>
+  </si>
+  <si>
+    <t>Gainesville</t>
+  </si>
+  <si>
+    <t>http://www.livingrecovery.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.O. Box 2375
+Gainesville, GA 30501
+(888) 507-5433 (Toll Free)
+(404) 694-6715
+(770) 967-9640 [FAX] </t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t>isaiahhouse@etcmail.com</t>
+  </si>
+  <si>
+    <t>Ellijay</t>
+  </si>
+  <si>
+    <t>http://www.isaiahhousega.com/</t>
+  </si>
+  <si>
+    <t>P.O. Box 2241
+Ellijay, GA 30540
+(706) 635-5353
+(706) 635-5352 [FAX]</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Lay</t>
+  </si>
+  <si>
+    <t>chanceresidentialrecovery@gmail.com</t>
+  </si>
+  <si>
+    <t>6415 Nuggett Trail
+Gainesville, GA 30506
+(770) 584-7222
+(770) 287-9500</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>rwhite@northstarrecovery.org</t>
+  </si>
+  <si>
+    <t>Fayetteville</t>
+  </si>
+  <si>
+    <t>http://www.northstarrecovery.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 Devant St., Suite 304
+Fayetteville, GA 30214
+(404) 399-7761 </t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>info@angelhouseofgeorgia.org</t>
+  </si>
+  <si>
+    <t>http://www.angelhouseofgeorgia.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P.O. Box 2667
+Gainesville, GA 30503
+(770) 572-7945
+(888) 480-2818 [FAX] </t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Campus Director</t>
+  </si>
+  <si>
+    <t>astone@penfieldrecovery.com</t>
+  </si>
+  <si>
+    <t>LaFayette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">702 E. Villanow Street
+LaFayette, GA 30728-2619
+(706) 620-4466
+(888) 785-0613 [FAX] </t>
+  </si>
+  <si>
+    <t>Donnie</t>
+  </si>
+  <si>
+    <t>Plummer</t>
+  </si>
+  <si>
+    <t>dplummer@penfieldrecovery.com</t>
+  </si>
+  <si>
+    <t>Lavonia</t>
+  </si>
+  <si>
+    <t>1150 Bear Creek Road
+Lavonia, GA 30553
+(706) 817-4601
+(888) 785-0613 [FAX]</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Steverson</t>
+  </si>
+  <si>
+    <t>hanksteverson@gmail.com</t>
+  </si>
+  <si>
+    <t>Soperton</t>
+  </si>
+  <si>
+    <t>Statesboro</t>
+  </si>
+  <si>
+    <t>vernh@nctv.com</t>
+  </si>
+  <si>
+    <t>Vern</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>http://www.cfcnewlife.org/</t>
+  </si>
+  <si>
+    <t>http://www.damascusrehab.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Outreach Lane
+Soperton, GA 30457
+(912) 529-6712
+(912) 529-5655 [FAX] </t>
+  </si>
+  <si>
+    <t>18 Simmons Center
+Statesboro, GA 30458
+(912) 536-5559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1061 Mercer Circle
+Union Point, GA 30669
+(706) 453-7929
+(888)785-0613 [FAX] </t>
+  </si>
+  <si>
+    <t>1010 Mary St.
+Waycross, GA 31503
+(912) 283-8580
+(912) 284-0071 [FAX – call first]</t>
+  </si>
+  <si>
+    <t>http://www.bethesdarecovery.net/</t>
+  </si>
+  <si>
+    <t>Waycross</t>
+  </si>
+  <si>
+    <t>Union Point</t>
+  </si>
+  <si>
+    <t>bmiller@penfieldrecovery.com</t>
+  </si>
+  <si>
+    <t>info@bethesdarecovery.net</t>
+  </si>
+  <si>
+    <t>Admission Director</t>
+  </si>
+  <si>
+    <t>Cathy</t>
+  </si>
+  <si>
+    <t>Sweat</t>
+  </si>
+  <si>
+    <t>Absolution House</t>
+  </si>
+  <si>
+    <t>http://mnsoberhomes.org/wp-content/uploads/Member-Directory-7-13-2017.pdf</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>612.618.4114</t>
+  </si>
+  <si>
+    <t>www.absolutionhouse.com</t>
+  </si>
+  <si>
+    <t>Allied Sober Living</t>
+  </si>
+  <si>
+    <t>Tommi</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>651.332.1732</t>
+  </si>
+  <si>
+    <t>www.alliedsoberliving.com</t>
+  </si>
+  <si>
+    <t>The Anthony House</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Maher</t>
+  </si>
+  <si>
+    <t>651.334.2395</t>
+  </si>
+  <si>
+    <t>www.theanthonyhouse.com</t>
+  </si>
+  <si>
+    <t>The Aurora House</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Costello-Junge</t>
+  </si>
+  <si>
+    <t>612.205.2568</t>
+  </si>
+  <si>
+    <t>www.truenorthrecovery.org</t>
+  </si>
+  <si>
+    <t>Bright Spot Sober House (3)</t>
+  </si>
+  <si>
+    <t>Valerie</t>
+  </si>
+  <si>
+    <t>Quintana</t>
+  </si>
+  <si>
+    <t>612.695.8811</t>
+  </si>
+  <si>
+    <t>Better Way Sober Living</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Bergeaux</t>
+  </si>
+  <si>
+    <t>337.371.7636</t>
+  </si>
+  <si>
+    <t>BSM Houses(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim </t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>612.805.5101</t>
+  </si>
+  <si>
+    <t>www.bsmsoberhouses.com</t>
+  </si>
+  <si>
+    <t>The Buffalo House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric </t>
+  </si>
+  <si>
+    <t>Abate</t>
+  </si>
+  <si>
+    <t>651.209.0780</t>
+  </si>
+  <si>
+    <t>www.BuffaloSoberHouse.com</t>
+  </si>
+  <si>
+    <t>Central Village House (2)</t>
+  </si>
+  <si>
+    <t>Georgia &amp; Bernard Jones</t>
+  </si>
+  <si>
+    <t>612.401.5794</t>
+  </si>
+  <si>
+    <t>www.centralvillagehouse.com</t>
+  </si>
+  <si>
+    <t>Como Area Sober Living (Como House)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>651.270.5239</t>
+  </si>
+  <si>
+    <t>Day by Day Living</t>
+  </si>
+  <si>
+    <t>DeEtte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Davis</t>
+  </si>
+  <si>
+    <t>612.807.7672</t>
+  </si>
+  <si>
+    <t>Fort Serenity (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerry </t>
+  </si>
+  <si>
+    <t>Tyrpa</t>
+  </si>
+  <si>
+    <t>612.272.3311</t>
+  </si>
+  <si>
+    <t>The Hatch Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dustin </t>
+  </si>
+  <si>
+    <t>Madigan</t>
+  </si>
+  <si>
+    <t>651.249.7824</t>
+  </si>
+  <si>
+    <t>House of Grace</t>
+  </si>
+  <si>
+    <t>Jane &amp; Pat  Adamson-Waitley</t>
+  </si>
+  <si>
+    <t>612.961.5682
+651.442.6364</t>
+  </si>
+  <si>
+    <t>www.houseofgrace.site</t>
+  </si>
+  <si>
+    <t>Landing Point (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor </t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>612.388.9882</t>
+  </si>
+  <si>
+    <t>Life Rebuilders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keely </t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>612.825.6871</t>
+  </si>
+  <si>
+    <t>Oakland House</t>
+  </si>
+  <si>
+    <t>Stacy &amp; Tamuno Imbu</t>
+  </si>
+  <si>
+    <t>612.272.6659
+612.558.3788</t>
+  </si>
+  <si>
+    <t>Optimist Crew Sober Living</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>651.354.2853</t>
+  </si>
+  <si>
+    <t>www.optimistcrew.com</t>
+  </si>
+  <si>
+    <t>The Portland &amp; Jordan House</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glade </t>
+  </si>
+  <si>
+    <t>Woolstenhulme</t>
+  </si>
+  <si>
+    <t>612.275.8125</t>
+  </si>
+  <si>
+    <t>New Spirit Homes</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>612.991.1534</t>
+  </si>
+  <si>
+    <t>www.new-spirit-homes.com</t>
+  </si>
+  <si>
+    <t>Recovery in Action Sober Housing (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan </t>
+  </si>
+  <si>
+    <t>Knutson</t>
+  </si>
+  <si>
+    <t>612.879.5080</t>
+  </si>
+  <si>
+    <t>www.sobermn.com</t>
+  </si>
+  <si>
+    <t>Redemption House</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>651.270.2358</t>
+  </si>
+  <si>
+    <t>www.redemptionhouse.net</t>
+  </si>
+  <si>
+    <t>Rejuvenate Homes (4)</t>
+  </si>
+  <si>
+    <t>Hegna</t>
+  </si>
+  <si>
+    <t>763.482.2344</t>
+  </si>
+  <si>
+    <t>www.soberhomes.com</t>
+  </si>
+  <si>
+    <t>Safe Haven Sober Living</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayna </t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>218.481.3114</t>
+  </si>
+  <si>
+    <t>www.safehavensoberhousemn.com</t>
+  </si>
+  <si>
+    <t>Second Step Supportive Housing (6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron </t>
+  </si>
+  <si>
+    <t>Hetrick</t>
+  </si>
+  <si>
+    <t>651.343.9352</t>
+  </si>
+  <si>
+    <t>www.secondstephousing.com</t>
+  </si>
+  <si>
+    <t>Snelling and Liati Houses</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Young</t>
+  </si>
+  <si>
+    <t>651.343.0920</t>
+  </si>
+  <si>
+    <t>South Shore Serenity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa </t>
+  </si>
+  <si>
+    <t>Gillette</t>
+  </si>
+  <si>
+    <t>651.253.2261</t>
+  </si>
+  <si>
+    <t>St. Paul Spirit House (2)</t>
+  </si>
+  <si>
+    <t>Barb &amp; Pat Madigan</t>
+  </si>
+  <si>
+    <t>612.991.1999</t>
+  </si>
+  <si>
+    <t>Stpaulspirithouse.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Paul Sober Living (11) </t>
+  </si>
+  <si>
+    <t>651.636.7775</t>
+  </si>
+  <si>
+    <t>www.stpaulsoberliving.com</t>
+  </si>
+  <si>
+    <t>Step by Step Homes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan </t>
+  </si>
+  <si>
+    <t>Opatz</t>
+  </si>
+  <si>
+    <t>720.492.2027</t>
+  </si>
+  <si>
+    <t>Stepping Stones (8)</t>
+  </si>
+  <si>
+    <t>Rett (Men) Kelly (Women)</t>
+  </si>
+  <si>
+    <t>www.sfour.org</t>
+  </si>
+  <si>
+    <t>Summit Hill Sober Living (3)</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boksa</t>
+  </si>
+  <si>
+    <t>651.401.5558</t>
+  </si>
+  <si>
+    <t>Summithillsoberliving.com</t>
+  </si>
+  <si>
+    <t>The Recovery Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke </t>
+  </si>
+  <si>
+    <t>Fluegel</t>
+  </si>
+  <si>
+    <t>651.417.1433</t>
+  </si>
+  <si>
+    <t>The Retreat (4)</t>
+  </si>
+  <si>
+    <t>Main Toll-free</t>
+  </si>
+  <si>
+    <t>www.theretreat.org</t>
+  </si>
+  <si>
+    <t>Transition Homes (6)</t>
+  </si>
+  <si>
+    <t>www.transition-homes.com</t>
+  </si>
+  <si>
+    <t>Transitional Recovery in Minnesota (“TRIM”)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topher </t>
+  </si>
+  <si>
+    <t>McMenemy</t>
+  </si>
+  <si>
+    <t>763.861.6869</t>
+  </si>
+  <si>
+    <t>www.transitionalrecoveryinmn.com</t>
+  </si>
+  <si>
+    <t>Trinity Sober Homes (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott </t>
+  </si>
+  <si>
+    <t>701.527.7769</t>
+  </si>
+  <si>
+    <t>www.trinitysoberhomes.org</t>
+  </si>
+  <si>
+    <t>University House</t>
+  </si>
+  <si>
+    <t>612.203.3455</t>
+  </si>
+  <si>
+    <t>www.soberstudents.org</t>
+  </si>
+  <si>
+    <t>West Side Sober Living (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike </t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>612.209.3060</t>
+  </si>
+  <si>
+    <t>www.facebook.com/lakestsoberliving</t>
+  </si>
+  <si>
+    <t>612.219.4806
+651.210.8775</t>
+  </si>
+  <si>
+    <t>952.476.0566
+866.928.3434</t>
+  </si>
+  <si>
+    <t>651.529.8900
+844.313.4890</t>
   </si>
 </sst>
 </file>
@@ -645,7 +1929,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -735,6 +2019,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -771,11 +2062,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -823,9 +2118,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1104,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1000"/>
+  <dimension ref="A1:AD998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1749,7 +3062,7 @@
       <c r="AD11" s="10"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="10"/>
@@ -2011,18 +3324,10 @@
         <v>57</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>188</v>
-      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="10"/>
       <c r="L17" s="18" t="s">
         <v>65</v>
@@ -2034,14 +3339,12 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="13" t="s">
-        <v>187</v>
-      </c>
+      <c r="R17" s="13"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="17" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
@@ -2062,16 +3365,37 @@
         <v>57</v>
       </c>
       <c r="E18" s="10"/>
+      <c r="F18" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="K18" s="10"/>
+      <c r="L18" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
+      <c r="R18" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
@@ -2092,15 +3416,38 @@
         <v>57</v>
       </c>
       <c r="E19" s="10"/>
+      <c r="F19" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="K19" s="10"/>
+      <c r="L19" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
+      <c r="R19" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="11"/>
+      <c r="V19" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="11"/>
@@ -2120,15 +3467,38 @@
         <v>57</v>
       </c>
       <c r="E20" s="10"/>
+      <c r="F20" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="K20" s="10"/>
+      <c r="L20" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
+      <c r="R20" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
+      <c r="V20" s="15" t="s">
+        <v>198</v>
+      </c>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="11"/>
@@ -2148,15 +3518,38 @@
         <v>57</v>
       </c>
       <c r="E21" s="10"/>
+      <c r="F21" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="K21" s="10"/>
+      <c r="L21" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="s">
+        <v>56</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
+      <c r="R21" s="13" t="s">
+        <v>204</v>
+      </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
-      <c r="V21" s="11"/>
+      <c r="V21" s="15" t="s">
+        <v>203</v>
+      </c>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="11"/>
@@ -2176,15 +3569,38 @@
         <v>57</v>
       </c>
       <c r="E22" s="10"/>
+      <c r="F22" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="K22" s="10"/>
+      <c r="L22" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="M22" t="s">
+        <v>56</v>
+      </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
+      <c r="R22" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
+      <c r="V22" s="15" t="s">
+        <v>212</v>
+      </c>
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="11"/>
@@ -2204,15 +3620,38 @@
         <v>57</v>
       </c>
       <c r="E23" s="10"/>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>211</v>
+      </c>
       <c r="K23" s="10"/>
+      <c r="L23" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="M23" t="s">
+        <v>56</v>
+      </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
+      <c r="R23" t="s">
+        <v>213</v>
+      </c>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
+      <c r="V23" s="15" t="s">
+        <v>214</v>
+      </c>
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
       <c r="Y23" s="11"/>
@@ -2222,7 +3661,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
     </row>
-    <row r="24" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -2232,15 +3671,38 @@
         <v>57</v>
       </c>
       <c r="E24" s="10"/>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="K24" s="10"/>
+      <c r="L24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" t="s">
+        <v>56</v>
+      </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
+      <c r="R24" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
-      <c r="V24" s="11"/>
+      <c r="V24" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
       <c r="Y24" s="11"/>
@@ -2250,7 +3712,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -2260,7 +3722,22 @@
         <v>57</v>
       </c>
       <c r="E25" s="10"/>
+      <c r="F25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>155</v>
+      </c>
       <c r="K25" s="10"/>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="s">
+        <v>56</v>
+      </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -2268,7 +3745,9 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
+      <c r="V25" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
@@ -2278,7 +3757,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -2288,7 +3767,25 @@
         <v>57</v>
       </c>
       <c r="E26" s="10"/>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>226</v>
+      </c>
       <c r="K26" s="10"/>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="s">
+        <v>56</v>
+      </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -2296,7 +3793,9 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
-      <c r="V26" s="11"/>
+      <c r="V26" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
       <c r="Y26" s="11"/>
@@ -2306,7 +3805,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
     </row>
-    <row r="27" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -2316,15 +3815,38 @@
         <v>57</v>
       </c>
       <c r="E27" s="10"/>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="K27" s="10"/>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" t="s">
+        <v>56</v>
+      </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
+      <c r="R27" s="13" t="s">
+        <v>232</v>
+      </c>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
-      <c r="V27" s="11"/>
+      <c r="V27" s="15" t="s">
+        <v>233</v>
+      </c>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
       <c r="Y27" s="11"/>
@@ -2334,7 +3856,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
     </row>
-    <row r="28" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -2344,7 +3866,25 @@
         <v>57</v>
       </c>
       <c r="E28" s="10"/>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
       <c r="K28" s="10"/>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="s">
+        <v>56</v>
+      </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -2352,7 +3892,9 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
+      <c r="V28" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
       <c r="Y28" s="11"/>
@@ -2362,7 +3904,7 @@
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
     </row>
-    <row r="29" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -2372,15 +3914,38 @@
         <v>57</v>
       </c>
       <c r="E29" s="10"/>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="K29" s="10"/>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="s">
+        <v>56</v>
+      </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
+      <c r="R29" s="13" t="s">
+        <v>239</v>
+      </c>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
+      <c r="V29" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="11"/>
@@ -2390,7 +3955,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
     </row>
-    <row r="30" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -2400,15 +3965,35 @@
         <v>57</v>
       </c>
       <c r="E30" s="10"/>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>242</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="K30" s="10"/>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="s">
+        <v>56</v>
+      </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
+      <c r="R30" t="s">
+        <v>243</v>
+      </c>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
-      <c r="V30" s="11"/>
+      <c r="V30" s="15" t="s">
+        <v>244</v>
+      </c>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="11"/>
@@ -2418,7 +4003,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
     </row>
-    <row r="31" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -2428,15 +4013,38 @@
         <v>57</v>
       </c>
       <c r="E31" s="10"/>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
       <c r="K31" s="10"/>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="s">
+        <v>56</v>
+      </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
+      <c r="R31" s="13" t="s">
+        <v>239</v>
+      </c>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
-      <c r="V31" s="11"/>
+      <c r="V31" s="15" t="s">
+        <v>248</v>
+      </c>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
       <c r="Y31" s="11"/>
@@ -2446,7 +4054,7 @@
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -2456,15 +4064,38 @@
         <v>57</v>
       </c>
       <c r="E32" s="10"/>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s">
+        <v>251</v>
+      </c>
       <c r="K32" s="10"/>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="s">
+        <v>56</v>
+      </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
+      <c r="R32" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="11"/>
+      <c r="V32" s="15" t="s">
+        <v>253</v>
+      </c>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
       <c r="Y32" s="11"/>
@@ -2474,9 +4105,9 @@
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2484,15 +4115,38 @@
         <v>57</v>
       </c>
       <c r="E33" s="10"/>
+      <c r="F33" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="K33" s="10"/>
+      <c r="L33" t="s">
+        <v>192</v>
+      </c>
+      <c r="M33" t="s">
+        <v>56</v>
+      </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
+      <c r="R33" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
-      <c r="V33" s="11"/>
+      <c r="V33" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
       <c r="Y33" s="11"/>
@@ -2502,9 +4156,9 @@
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
     </row>
-    <row r="34" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2512,15 +4166,38 @@
         <v>57</v>
       </c>
       <c r="E34" s="10"/>
+      <c r="F34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" t="s">
+        <v>262</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="K34" s="10"/>
+      <c r="L34" t="s">
+        <v>223</v>
+      </c>
+      <c r="M34" t="s">
+        <v>56</v>
+      </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
+      <c r="R34" s="13" t="s">
+        <v>265</v>
+      </c>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
-      <c r="V34" s="11"/>
+      <c r="V34" s="15" t="s">
+        <v>264</v>
+      </c>
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
       <c r="Y34" s="11"/>
@@ -2530,9 +4207,9 @@
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2540,15 +4217,38 @@
         <v>57</v>
       </c>
       <c r="E35" s="10"/>
+      <c r="F35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" t="s">
+        <v>267</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>268</v>
+      </c>
       <c r="K35" s="10"/>
+      <c r="L35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" t="s">
+        <v>56</v>
+      </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
+      <c r="R35" s="13" t="s">
+        <v>269</v>
+      </c>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
-      <c r="V35" s="11"/>
+      <c r="V35" s="15" t="s">
+        <v>270</v>
+      </c>
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="11"/>
@@ -2558,9 +4258,9 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2568,15 +4268,35 @@
         <v>57</v>
       </c>
       <c r="E36" s="10"/>
+      <c r="F36" t="s">
+        <v>271</v>
+      </c>
+      <c r="G36" t="s">
+        <v>216</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>272</v>
+      </c>
       <c r="K36" s="10"/>
+      <c r="L36" t="s">
+        <v>208</v>
+      </c>
+      <c r="M36" t="s">
+        <v>56</v>
+      </c>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
+      <c r="R36" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
-      <c r="V36" s="11"/>
+      <c r="V36" s="15" t="s">
+        <v>274</v>
+      </c>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="11"/>
@@ -2586,9 +4306,9 @@
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
     </row>
-    <row r="37" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2596,15 +4316,38 @@
         <v>57</v>
       </c>
       <c r="E37" s="10"/>
+      <c r="F37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" t="s">
+        <v>276</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="K37" s="10"/>
+      <c r="L37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" t="s">
+        <v>56</v>
+      </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
+      <c r="R37" s="13" t="s">
+        <v>278</v>
+      </c>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
-      <c r="V37" s="11"/>
+      <c r="V37" s="15" t="s">
+        <v>270</v>
+      </c>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
       <c r="Y37" s="11"/>
@@ -2614,9 +4357,9 @@
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
     </row>
-    <row r="38" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2624,15 +4367,38 @@
         <v>57</v>
       </c>
       <c r="E38" s="10"/>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>279</v>
+      </c>
+      <c r="H38" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="K38" s="10"/>
+      <c r="L38" t="s">
+        <v>65</v>
+      </c>
+      <c r="M38" t="s">
+        <v>56</v>
+      </c>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
+      <c r="R38" t="s">
+        <v>281</v>
+      </c>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
-      <c r="V38" s="11"/>
+      <c r="V38" s="15" t="s">
+        <v>282</v>
+      </c>
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
       <c r="Y38" s="11"/>
@@ -2642,9 +4408,9 @@
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
     </row>
-    <row r="39" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2652,15 +4418,38 @@
         <v>57</v>
       </c>
       <c r="E39" s="10"/>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>285</v>
+      </c>
       <c r="K39" s="10"/>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="s">
+        <v>56</v>
+      </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
+      <c r="R39" t="s">
+        <v>287</v>
+      </c>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
-      <c r="V39" s="11"/>
+      <c r="V39" s="15" t="s">
+        <v>288</v>
+      </c>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
       <c r="Y39" s="11"/>
@@ -2670,9 +4459,9 @@
       <c r="AC39" s="10"/>
       <c r="AD39" s="10"/>
     </row>
-    <row r="40" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2680,15 +4469,38 @@
         <v>57</v>
       </c>
       <c r="E40" s="10"/>
+      <c r="F40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>292</v>
+      </c>
       <c r="K40" s="10"/>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" t="s">
+        <v>56</v>
+      </c>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
+      <c r="R40" s="13" t="s">
+        <v>294</v>
+      </c>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="11"/>
+      <c r="V40" s="15" t="s">
+        <v>293</v>
+      </c>
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
       <c r="Y40" s="11"/>
@@ -2698,9 +4510,9 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
     </row>
-    <row r="41" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2708,15 +4520,38 @@
         <v>57</v>
       </c>
       <c r="E41" s="10"/>
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>297</v>
+      </c>
       <c r="K41" s="10"/>
+      <c r="L41" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" t="s">
+        <v>56</v>
+      </c>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
+      <c r="R41" s="13" t="s">
+        <v>298</v>
+      </c>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
-      <c r="V41" s="11"/>
+      <c r="V41" s="15" t="s">
+        <v>299</v>
+      </c>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="11"/>
@@ -2726,9 +4561,9 @@
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
     </row>
-    <row r="42" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2736,15 +4571,38 @@
         <v>57</v>
       </c>
       <c r="E42" s="10"/>
+      <c r="F42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" t="s">
+        <v>302</v>
+      </c>
+      <c r="H42" t="s">
+        <v>303</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>300</v>
+      </c>
       <c r="K42" s="10"/>
+      <c r="L42" t="s">
+        <v>227</v>
+      </c>
+      <c r="M42" t="s">
+        <v>56</v>
+      </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
+      <c r="R42" s="13" t="s">
+        <v>305</v>
+      </c>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
-      <c r="V42" s="11"/>
+      <c r="V42" s="15" t="s">
+        <v>304</v>
+      </c>
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
       <c r="Y42" s="11"/>
@@ -2754,9 +4612,9 @@
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
     </row>
-    <row r="43" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2764,15 +4622,38 @@
         <v>57</v>
       </c>
       <c r="E43" s="10"/>
+      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
+        <v>308</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>309</v>
+      </c>
       <c r="K43" s="10"/>
+      <c r="L43" t="s">
+        <v>310</v>
+      </c>
+      <c r="M43" t="s">
+        <v>56</v>
+      </c>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
+      <c r="R43" s="13" t="s">
+        <v>306</v>
+      </c>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="11"/>
+      <c r="V43" s="15" t="s">
+        <v>311</v>
+      </c>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="11"/>
@@ -2782,9 +4663,9 @@
       <c r="AC43" s="10"/>
       <c r="AD43" s="10"/>
     </row>
-    <row r="44" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2792,15 +4673,38 @@
         <v>57</v>
       </c>
       <c r="E44" s="10"/>
+      <c r="F44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>314</v>
+      </c>
       <c r="K44" s="10"/>
+      <c r="L44" t="s">
+        <v>223</v>
+      </c>
+      <c r="M44" t="s">
+        <v>56</v>
+      </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
+      <c r="R44" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
       <c r="U44" s="10"/>
-      <c r="V44" s="11"/>
+      <c r="V44" s="15" t="s">
+        <v>312</v>
+      </c>
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
       <c r="Y44" s="11"/>
@@ -2810,9 +4714,9 @@
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
     </row>
-    <row r="45" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2820,15 +4724,38 @@
         <v>57</v>
       </c>
       <c r="E45" s="10"/>
+      <c r="F45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" t="s">
+        <v>318</v>
+      </c>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>319</v>
+      </c>
       <c r="K45" s="10"/>
+      <c r="L45" t="s">
+        <v>310</v>
+      </c>
+      <c r="M45" t="s">
+        <v>56</v>
+      </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
+      <c r="R45" s="13" t="s">
+        <v>321</v>
+      </c>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="11"/>
+      <c r="V45" s="15" t="s">
+        <v>320</v>
+      </c>
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
       <c r="Y45" s="11"/>
@@ -2838,9 +4765,9 @@
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
     </row>
-    <row r="46" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2848,7 +4775,16 @@
         <v>57</v>
       </c>
       <c r="E46" s="10"/>
+      <c r="J46" s="13" t="s">
+        <v>322</v>
+      </c>
       <c r="K46" s="10"/>
+      <c r="L46" t="s">
+        <v>323</v>
+      </c>
+      <c r="M46" t="s">
+        <v>56</v>
+      </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -2856,7 +4792,9 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="11"/>
+      <c r="V46" s="15" t="s">
+        <v>324</v>
+      </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
       <c r="Y46" s="11"/>
@@ -2866,9 +4804,9 @@
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
     </row>
-    <row r="47" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2876,15 +4814,38 @@
         <v>57</v>
       </c>
       <c r="E47" s="10"/>
+      <c r="F47" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" t="s">
+        <v>326</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>327</v>
+      </c>
       <c r="K47" s="10"/>
+      <c r="L47" t="s">
+        <v>328</v>
+      </c>
+      <c r="M47" t="s">
+        <v>56</v>
+      </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
+      <c r="R47" s="13" t="s">
+        <v>329</v>
+      </c>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
-      <c r="V47" s="11"/>
+      <c r="V47" s="15" t="s">
+        <v>330</v>
+      </c>
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
       <c r="Y47" s="11"/>
@@ -2894,9 +4855,9 @@
       <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
     </row>
-    <row r="48" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2904,15 +4865,38 @@
         <v>57</v>
       </c>
       <c r="E48" s="10"/>
+      <c r="F48" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" t="s">
+        <v>332</v>
+      </c>
+      <c r="H48" t="s">
+        <v>333</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>334</v>
+      </c>
       <c r="K48" s="10"/>
+      <c r="L48" t="s">
+        <v>336</v>
+      </c>
+      <c r="M48" t="s">
+        <v>56</v>
+      </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
+      <c r="R48" t="s">
+        <v>335</v>
+      </c>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
-      <c r="V48" s="11"/>
+      <c r="V48" s="15" t="s">
+        <v>337</v>
+      </c>
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
       <c r="Y48" s="11"/>
@@ -2922,25 +4906,48 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
     </row>
-    <row r="49" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
-      <c r="D49" t="s">
+      <c r="D49" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E49" s="10"/>
+      <c r="F49" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" t="s">
+        <v>339</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>340</v>
+      </c>
       <c r="K49" s="10"/>
+      <c r="L49" t="s">
+        <v>342</v>
+      </c>
+      <c r="M49" t="s">
+        <v>56</v>
+      </c>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
+      <c r="R49" s="13" t="s">
+        <v>341</v>
+      </c>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
-      <c r="V49" s="11"/>
+      <c r="V49" s="15" t="s">
+        <v>343</v>
+      </c>
       <c r="W49" s="10"/>
       <c r="X49" s="10"/>
       <c r="Y49" s="11"/>
@@ -2950,9 +4957,9 @@
       <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
     </row>
-    <row r="50" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2960,15 +4967,29 @@
         <v>57</v>
       </c>
       <c r="E50" s="10"/>
+      <c r="J50" s="13" t="s">
+        <v>344</v>
+      </c>
       <c r="K50" s="10"/>
+      <c r="L50" t="s">
+        <v>345</v>
+      </c>
+      <c r="M50" t="s">
+        <v>56</v>
+      </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
+      <c r="R50" s="13" t="s">
+        <v>346</v>
+      </c>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-      <c r="V50" s="11"/>
+      <c r="V50" s="15" t="s">
+        <v>347</v>
+      </c>
       <c r="W50" s="10"/>
       <c r="X50" s="10"/>
       <c r="Y50" s="11"/>
@@ -2978,25 +4999,48 @@
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
     </row>
-    <row r="51" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" t="s">
+      <c r="D51" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E51" s="10"/>
+      <c r="F51" t="s">
+        <v>338</v>
+      </c>
+      <c r="G51" t="s">
+        <v>339</v>
+      </c>
+      <c r="H51" t="s">
+        <v>236</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>340</v>
+      </c>
       <c r="K51" s="10"/>
+      <c r="L51" t="s">
+        <v>348</v>
+      </c>
+      <c r="M51" t="s">
+        <v>56</v>
+      </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
+      <c r="R51" s="13" t="s">
+        <v>341</v>
+      </c>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
-      <c r="V51" s="11"/>
+      <c r="V51" s="15" t="s">
+        <v>349</v>
+      </c>
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="11"/>
@@ -3006,9 +5050,9 @@
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
     </row>
-    <row r="52" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -3016,15 +5060,38 @@
         <v>57</v>
       </c>
       <c r="E52" s="10"/>
+      <c r="F52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G52" t="s">
+        <v>351</v>
+      </c>
+      <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>352</v>
+      </c>
       <c r="K52" s="10"/>
+      <c r="L52" t="s">
+        <v>353</v>
+      </c>
+      <c r="M52" t="s">
+        <v>56</v>
+      </c>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
+      <c r="R52" t="s">
+        <v>354</v>
+      </c>
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
-      <c r="V52" s="11"/>
+      <c r="V52" s="15" t="s">
+        <v>355</v>
+      </c>
       <c r="W52" s="10"/>
       <c r="X52" s="10"/>
       <c r="Y52" s="11"/>
@@ -3034,9 +5101,9 @@
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
     </row>
-    <row r="53" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -3044,15 +5111,38 @@
         <v>57</v>
       </c>
       <c r="E53" s="10"/>
+      <c r="F53" t="s">
+        <v>356</v>
+      </c>
+      <c r="G53" t="s">
+        <v>357</v>
+      </c>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="K53" s="10"/>
+      <c r="L53" t="s">
+        <v>359</v>
+      </c>
+      <c r="M53" t="s">
+        <v>56</v>
+      </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
+      <c r="R53" t="s">
+        <v>360</v>
+      </c>
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10"/>
-      <c r="V53" s="11"/>
+      <c r="V53" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="W53" s="10"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="11"/>
@@ -3062,9 +5152,9 @@
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
     </row>
-    <row r="54" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -3072,7 +5162,25 @@
         <v>57</v>
       </c>
       <c r="E54" s="10"/>
+      <c r="F54" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" t="s">
+        <v>363</v>
+      </c>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>364</v>
+      </c>
       <c r="K54" s="10"/>
+      <c r="L54" t="s">
+        <v>353</v>
+      </c>
+      <c r="M54" t="s">
+        <v>56</v>
+      </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
@@ -3080,7 +5188,9 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="11"/>
+      <c r="V54" s="15" t="s">
+        <v>365</v>
+      </c>
       <c r="W54" s="10"/>
       <c r="X54" s="10"/>
       <c r="Y54" s="11"/>
@@ -3090,9 +5200,9 @@
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
     </row>
-    <row r="55" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -3100,15 +5210,38 @@
         <v>57</v>
       </c>
       <c r="E55" s="10"/>
+      <c r="F55" t="s">
+        <v>366</v>
+      </c>
+      <c r="G55" t="s">
+        <v>367</v>
+      </c>
+      <c r="H55" t="s">
+        <v>78</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>368</v>
+      </c>
       <c r="K55" s="10"/>
+      <c r="L55" t="s">
+        <v>369</v>
+      </c>
+      <c r="M55" t="s">
+        <v>56</v>
+      </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
+      <c r="R55" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
-      <c r="V55" s="11"/>
+      <c r="V55" s="15" t="s">
+        <v>371</v>
+      </c>
       <c r="W55" s="10"/>
       <c r="X55" s="10"/>
       <c r="Y55" s="11"/>
@@ -3118,9 +5251,9 @@
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
     </row>
-    <row r="56" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -3128,15 +5261,38 @@
         <v>57</v>
       </c>
       <c r="E56" s="10"/>
+      <c r="F56" t="s">
+        <v>372</v>
+      </c>
+      <c r="G56" t="s">
+        <v>373</v>
+      </c>
+      <c r="H56" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>374</v>
+      </c>
       <c r="K56" s="10"/>
+      <c r="L56" t="s">
+        <v>353</v>
+      </c>
+      <c r="M56" t="s">
+        <v>56</v>
+      </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
+      <c r="R56" t="s">
+        <v>375</v>
+      </c>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
-      <c r="V56" s="11"/>
+      <c r="V56" s="15" t="s">
+        <v>376</v>
+      </c>
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
       <c r="Y56" s="11"/>
@@ -3146,7 +5302,7 @@
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
     </row>
-    <row r="57" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -3156,15 +5312,38 @@
         <v>57</v>
       </c>
       <c r="E57" s="10"/>
+      <c r="F57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G57" t="s">
+        <v>378</v>
+      </c>
+      <c r="H57" t="s">
+        <v>379</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>380</v>
+      </c>
       <c r="K57" s="10"/>
+      <c r="L57" t="s">
+        <v>381</v>
+      </c>
+      <c r="M57" t="s">
+        <v>56</v>
+      </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
+      <c r="R57" t="s">
+        <v>69</v>
+      </c>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
-      <c r="V57" s="11"/>
+      <c r="V57" s="15" t="s">
+        <v>382</v>
+      </c>
       <c r="W57" s="10"/>
       <c r="X57" s="10"/>
       <c r="Y57" s="11"/>
@@ -3174,9 +5353,9 @@
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
     </row>
-    <row r="58" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -3184,15 +5363,38 @@
         <v>57</v>
       </c>
       <c r="E58" s="10"/>
+      <c r="F58" t="s">
+        <v>383</v>
+      </c>
+      <c r="G58" t="s">
+        <v>384</v>
+      </c>
+      <c r="H58" t="s">
+        <v>155</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>385</v>
+      </c>
       <c r="K58" s="10"/>
+      <c r="L58" t="s">
+        <v>386</v>
+      </c>
+      <c r="M58" t="s">
+        <v>56</v>
+      </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
+      <c r="R58" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
-      <c r="V58" s="11"/>
+      <c r="V58" s="15" t="s">
+        <v>387</v>
+      </c>
       <c r="W58" s="10"/>
       <c r="X58" s="10"/>
       <c r="Y58" s="11"/>
@@ -3202,9 +5404,9 @@
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
     </row>
-    <row r="59" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3212,15 +5414,38 @@
         <v>57</v>
       </c>
       <c r="E59" s="10"/>
+      <c r="F59" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" t="s">
+        <v>389</v>
+      </c>
+      <c r="H59" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>390</v>
+      </c>
       <c r="K59" s="10"/>
+      <c r="L59" t="s">
+        <v>391</v>
+      </c>
+      <c r="M59" t="s">
+        <v>56</v>
+      </c>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
+      <c r="R59" s="13" t="s">
+        <v>396</v>
+      </c>
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
-      <c r="V59" s="11"/>
+      <c r="V59" s="15" t="s">
+        <v>398</v>
+      </c>
       <c r="W59" s="10"/>
       <c r="X59" s="10"/>
       <c r="Y59" s="11"/>
@@ -3230,9 +5455,9 @@
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
     </row>
-    <row r="60" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -3240,15 +5465,38 @@
         <v>57</v>
       </c>
       <c r="E60" s="10"/>
+      <c r="F60" t="s">
+        <v>394</v>
+      </c>
+      <c r="G60" t="s">
+        <v>395</v>
+      </c>
+      <c r="H60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>393</v>
+      </c>
       <c r="K60" s="10"/>
+      <c r="L60" t="s">
+        <v>392</v>
+      </c>
+      <c r="M60" t="s">
+        <v>56</v>
+      </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
+      <c r="R60" s="13" t="s">
+        <v>397</v>
+      </c>
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
-      <c r="V60" s="11"/>
+      <c r="V60" s="15" t="s">
+        <v>399</v>
+      </c>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
       <c r="Y60" s="11"/>
@@ -3258,9 +5506,9 @@
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
     </row>
-    <row r="61" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -3268,15 +5516,38 @@
         <v>57</v>
       </c>
       <c r="E61" s="10"/>
+      <c r="F61" t="s">
+        <v>383</v>
+      </c>
+      <c r="G61" t="s">
+        <v>384</v>
+      </c>
+      <c r="H61" t="s">
+        <v>407</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>405</v>
+      </c>
       <c r="K61" s="10"/>
+      <c r="L61" t="s">
+        <v>404</v>
+      </c>
+      <c r="M61" t="s">
+        <v>56</v>
+      </c>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
+      <c r="R61" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
-      <c r="V61" s="11"/>
+      <c r="V61" s="12" t="s">
+        <v>400</v>
+      </c>
       <c r="W61" s="10"/>
       <c r="X61" s="10"/>
       <c r="Y61" s="11"/>
@@ -3286,25 +5557,48 @@
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
     </row>
-    <row r="62" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
-      <c r="D62" t="s">
+      <c r="D62" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E62" s="10"/>
+      <c r="F62" t="s">
+        <v>408</v>
+      </c>
+      <c r="G62" t="s">
+        <v>409</v>
+      </c>
+      <c r="H62" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>406</v>
+      </c>
       <c r="K62" s="10"/>
+      <c r="L62" t="s">
+        <v>403</v>
+      </c>
+      <c r="M62" t="s">
+        <v>56</v>
+      </c>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
+      <c r="R62" s="13" t="s">
+        <v>402</v>
+      </c>
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
-      <c r="V62" s="11"/>
+      <c r="V62" s="15" t="s">
+        <v>401</v>
+      </c>
       <c r="W62" s="10"/>
       <c r="X62" s="10"/>
       <c r="Y62" s="11"/>
@@ -3315,15 +5609,27 @@
       <c r="AD62" s="10"/>
     </row>
     <row r="63" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>140</v>
+      <c r="A63" s="26" t="s">
+        <v>410</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
-      <c r="D63" t="s">
-        <v>57</v>
+      <c r="D63" s="28" t="s">
+        <v>411</v>
       </c>
       <c r="E63" s="10"/>
+      <c r="F63" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>414</v>
+      </c>
       <c r="K63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
@@ -3343,9 +5649,27 @@
       <c r="AD63" s="10"/>
     </row>
     <row r="64" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="25" t="s">
+        <v>415</v>
+      </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
+      <c r="D64" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E64" s="10"/>
+      <c r="F64" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="J64" s="29" t="s">
+        <v>419</v>
+      </c>
       <c r="K64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -3364,10 +5688,28 @@
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
     </row>
-    <row r="65" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="25" t="s">
+        <v>420</v>
+      </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
+      <c r="D65" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E65" s="10"/>
+      <c r="F65" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>424</v>
+      </c>
       <c r="K65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
@@ -3386,10 +5728,28 @@
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
     </row>
-    <row r="66" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="27" t="s">
+        <v>425</v>
+      </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
+      <c r="D66" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E66" s="10"/>
+      <c r="F66" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>429</v>
+      </c>
       <c r="K66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
@@ -3408,10 +5768,26 @@
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
     </row>
-    <row r="67" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="22" t="s">
+        <v>430</v>
+      </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
+      <c r="D67" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E67" s="10"/>
+      <c r="F67" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="J67" s="20"/>
       <c r="K67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
@@ -3430,10 +5806,26 @@
       <c r="AC67" s="10"/>
       <c r="AD67" s="10"/>
     </row>
-    <row r="68" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="22" t="s">
+        <v>434</v>
+      </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
+      <c r="D68" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E68" s="10"/>
+      <c r="F68" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="J68" s="20"/>
       <c r="K68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -3452,10 +5844,28 @@
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
     </row>
-    <row r="69" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="25" t="s">
+        <v>438</v>
+      </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
+      <c r="D69" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E69" s="10"/>
+      <c r="F69" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>442</v>
+      </c>
       <c r="K69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
@@ -3474,10 +5884,28 @@
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
     </row>
-    <row r="70" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="25" t="s">
+        <v>443</v>
+      </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
+      <c r="D70" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E70" s="10"/>
+      <c r="F70" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="J70" s="29" t="s">
+        <v>447</v>
+      </c>
       <c r="K70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
@@ -3496,10 +5924,26 @@
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
     </row>
-    <row r="71" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="27" t="s">
+        <v>448</v>
+      </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
+      <c r="D71" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E71" s="10"/>
+      <c r="F71" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="G71" s="20"/>
+      <c r="I71" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="J71" s="29" t="s">
+        <v>451</v>
+      </c>
       <c r="K71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
@@ -3518,10 +5962,26 @@
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
     </row>
-    <row r="72" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="22" t="s">
+        <v>452</v>
+      </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
+      <c r="D72" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E72" s="10"/>
+      <c r="F72" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="J72" s="20"/>
       <c r="K72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -3540,10 +6000,26 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
     </row>
-    <row r="73" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="s">
+        <v>456</v>
+      </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
+      <c r="D73" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E73" s="10"/>
+      <c r="F73" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="J73" s="20"/>
       <c r="K73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -3562,10 +6038,26 @@
       <c r="AC73" s="10"/>
       <c r="AD73" s="10"/>
     </row>
-    <row r="74" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="s">
+        <v>460</v>
+      </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
+      <c r="D74" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E74" s="10"/>
+      <c r="F74" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="J74" s="20"/>
       <c r="K74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -3584,10 +6076,26 @@
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
     </row>
-    <row r="75" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="s">
+        <v>464</v>
+      </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
+      <c r="D75" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E75" s="10"/>
+      <c r="F75" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="J75" s="20"/>
       <c r="K75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -3606,10 +6114,26 @@
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
     </row>
-    <row r="76" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="25" t="s">
+        <v>468</v>
+      </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
+      <c r="D76" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E76" s="10"/>
+      <c r="F76" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="G76" s="20"/>
+      <c r="I76" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>471</v>
+      </c>
       <c r="K76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -3628,10 +6152,26 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
     </row>
-    <row r="77" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="s">
+        <v>472</v>
+      </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
+      <c r="D77" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E77" s="10"/>
+      <c r="F77" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="J77" s="20"/>
       <c r="K77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -3650,10 +6190,26 @@
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
     </row>
-    <row r="78" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="s">
+        <v>476</v>
+      </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
+      <c r="D78" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E78" s="10"/>
+      <c r="F78" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="J78" s="20"/>
       <c r="K78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -3672,10 +6228,24 @@
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
     </row>
-    <row r="79" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="s">
+        <v>480</v>
+      </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
+      <c r="D79" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E79" s="10"/>
+      <c r="F79" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="G79" s="20"/>
+      <c r="I79" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="J79" s="20"/>
       <c r="K79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -3694,10 +6264,26 @@
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
     </row>
-    <row r="80" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="25" t="s">
+        <v>483</v>
+      </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
+      <c r="D80" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E80" s="10"/>
+      <c r="F80" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="G80" s="20"/>
+      <c r="I80" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="J80" s="29" t="s">
+        <v>486</v>
+      </c>
       <c r="K80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -3716,10 +6302,26 @@
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
     </row>
-    <row r="81" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
+        <v>487</v>
+      </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
+      <c r="D81" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E81" s="10"/>
+      <c r="F81" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="J81" s="20"/>
       <c r="K81" s="10"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -3738,10 +6340,26 @@
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
     </row>
-    <row r="82" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="25" t="s">
+        <v>491</v>
+      </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
+      <c r="D82" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E82" s="10"/>
+      <c r="F82" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="G82" s="20"/>
+      <c r="I82" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>494</v>
+      </c>
       <c r="K82" s="10"/>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -3760,10 +6378,28 @@
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
     </row>
-    <row r="83" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="25" t="s">
+        <v>495</v>
+      </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
+      <c r="D83" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E83" s="10"/>
+      <c r="F83" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="J83" s="29" t="s">
+        <v>499</v>
+      </c>
       <c r="K83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -3782,10 +6418,28 @@
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
     </row>
-    <row r="84" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="27" t="s">
+        <v>500</v>
+      </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
+      <c r="D84" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E84" s="10"/>
+      <c r="F84" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="J84" s="29" t="s">
+        <v>503</v>
+      </c>
       <c r="K84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -3804,10 +6458,28 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
     </row>
-    <row r="85" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="25" t="s">
+        <v>504</v>
+      </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
+      <c r="D85" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E85" s="10"/>
+      <c r="F85" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="J85" s="29" t="s">
+        <v>507</v>
+      </c>
       <c r="K85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -3826,10 +6498,28 @@
       <c r="AC85" s="10"/>
       <c r="AD85" s="10"/>
     </row>
-    <row r="86" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="27" t="s">
+        <v>508</v>
+      </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
+      <c r="D86" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E86" s="10"/>
+      <c r="F86" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>512</v>
+      </c>
       <c r="K86" s="10"/>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
@@ -3848,10 +6538,28 @@
       <c r="AC86" s="10"/>
       <c r="AD86" s="10"/>
     </row>
-    <row r="87" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="25" t="s">
+        <v>513</v>
+      </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
+      <c r="D87" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E87" s="10"/>
+      <c r="F87" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="J87" s="29" t="s">
+        <v>517</v>
+      </c>
       <c r="K87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
@@ -3870,10 +6578,26 @@
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
     </row>
-    <row r="88" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="19" t="s">
+        <v>518</v>
+      </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
+      <c r="D88" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E88" s="10"/>
+      <c r="F88" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="J88" s="20"/>
       <c r="K88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -3892,10 +6616,26 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
     </row>
-    <row r="89" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="23" t="s">
+        <v>522</v>
+      </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
+      <c r="D89" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E89" s="10"/>
+      <c r="F89" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="J89" s="20"/>
       <c r="K89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
@@ -3914,10 +6654,26 @@
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
     </row>
-    <row r="90" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="23" t="s">
+        <v>526</v>
+      </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
+      <c r="D90" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E90" s="10"/>
+      <c r="F90" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="G90" s="20"/>
+      <c r="I90" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>529</v>
+      </c>
       <c r="K90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -3936,10 +6692,26 @@
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
     </row>
-    <row r="91" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="25" t="s">
+        <v>530</v>
+      </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
+      <c r="D91" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E91" s="10"/>
+      <c r="F91" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="G91" s="20"/>
+      <c r="I91" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="J91" s="29" t="s">
+        <v>532</v>
+      </c>
       <c r="K91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -3958,10 +6730,26 @@
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
     </row>
-    <row r="92" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="23" t="s">
+        <v>533</v>
+      </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
+      <c r="D92" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E92" s="10"/>
+      <c r="F92" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="J92" s="20"/>
       <c r="K92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -3980,10 +6768,26 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="10"/>
     </row>
-    <row r="93" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="25" t="s">
+        <v>537</v>
+      </c>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
+      <c r="D93" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E93" s="10"/>
+      <c r="F93" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="G93" s="20"/>
+      <c r="I93" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="J93" s="29" t="s">
+        <v>539</v>
+      </c>
       <c r="K93" s="10"/>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
@@ -4002,10 +6806,28 @@
       <c r="AC93" s="10"/>
       <c r="AD93" s="10"/>
     </row>
-    <row r="94" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>540</v>
+      </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
+      <c r="D94" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E94" s="10"/>
+      <c r="F94" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="J94" s="22" t="s">
+        <v>544</v>
+      </c>
       <c r="K94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
@@ -4024,10 +6846,26 @@
       <c r="AC94" s="10"/>
       <c r="AD94" s="10"/>
     </row>
-    <row r="95" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="23" t="s">
+        <v>545</v>
+      </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
+      <c r="D95" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E95" s="10"/>
+      <c r="F95" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="J95" s="20"/>
       <c r="K95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -4046,10 +6884,26 @@
       <c r="AC95" s="10"/>
       <c r="AD95" s="10"/>
     </row>
-    <row r="96" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="25" t="s">
+        <v>549</v>
+      </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
+      <c r="D96" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E96" s="10"/>
+      <c r="F96" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="G96" s="20"/>
+      <c r="I96" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="J96" s="29" t="s">
+        <v>551</v>
+      </c>
       <c r="K96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -4068,10 +6922,26 @@
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
     </row>
-    <row r="97" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="25" t="s">
+        <v>552</v>
+      </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
+      <c r="D97" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E97" s="10"/>
+      <c r="F97" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="G97" s="20"/>
+      <c r="I97" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="J97" s="29" t="s">
+        <v>553</v>
+      </c>
       <c r="K97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
@@ -4090,10 +6960,28 @@
       <c r="AC97" s="10"/>
       <c r="AD97" s="10"/>
     </row>
-    <row r="98" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="27" t="s">
+        <v>554</v>
+      </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
+      <c r="D98" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E98" s="10"/>
+      <c r="F98" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="J98" s="29" t="s">
+        <v>558</v>
+      </c>
       <c r="K98" s="10"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -4112,10 +7000,28 @@
       <c r="AC98" s="10"/>
       <c r="AD98" s="10"/>
     </row>
-    <row r="99" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="25" t="s">
+        <v>559</v>
+      </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
+      <c r="D99" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E99" s="10"/>
+      <c r="F99" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="J99" s="29" t="s">
+        <v>562</v>
+      </c>
       <c r="K99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
@@ -4134,10 +7040,26 @@
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
     </row>
-    <row r="100" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="25" t="s">
+        <v>563</v>
+      </c>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
+      <c r="D100" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E100" s="10"/>
+      <c r="F100" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="G100" s="20"/>
+      <c r="I100" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="J100" s="29" t="s">
+        <v>565</v>
+      </c>
       <c r="K100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -4156,10 +7078,28 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
     </row>
-    <row r="101" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="25" t="s">
+        <v>566</v>
+      </c>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
+      <c r="D101" s="28" t="s">
+        <v>411</v>
+      </c>
       <c r="E101" s="10"/>
+      <c r="F101" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="J101" s="29" t="s">
+        <v>570</v>
+      </c>
       <c r="K101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
@@ -4178,7 +7118,7 @@
       <c r="AC101" s="10"/>
       <c r="AD101" s="10"/>
     </row>
-    <row r="102" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="E102" s="10"/>
@@ -4200,7 +7140,7 @@
       <c r="AC102" s="10"/>
       <c r="AD102" s="10"/>
     </row>
-    <row r="103" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="E103" s="10"/>
@@ -4222,7 +7162,7 @@
       <c r="AC103" s="10"/>
       <c r="AD103" s="10"/>
     </row>
-    <row r="104" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="E104" s="10"/>
@@ -4244,7 +7184,7 @@
       <c r="AC104" s="10"/>
       <c r="AD104" s="10"/>
     </row>
-    <row r="105" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="E105" s="10"/>
@@ -4266,7 +7206,7 @@
       <c r="AC105" s="10"/>
       <c r="AD105" s="10"/>
     </row>
-    <row r="106" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="E106" s="10"/>
@@ -4288,7 +7228,7 @@
       <c r="AC106" s="10"/>
       <c r="AD106" s="10"/>
     </row>
-    <row r="107" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="E107" s="10"/>
@@ -4310,7 +7250,7 @@
       <c r="AC107" s="10"/>
       <c r="AD107" s="10"/>
     </row>
-    <row r="108" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="E108" s="10"/>
@@ -4332,7 +7272,7 @@
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
     </row>
-    <row r="109" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="E109" s="10"/>
@@ -4354,7 +7294,7 @@
       <c r="AC109" s="10"/>
       <c r="AD109" s="10"/>
     </row>
-    <row r="110" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="E110" s="10"/>
@@ -4376,7 +7316,7 @@
       <c r="AC110" s="10"/>
       <c r="AD110" s="10"/>
     </row>
-    <row r="111" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="E111" s="10"/>
@@ -4398,7 +7338,7 @@
       <c r="AC111" s="10"/>
       <c r="AD111" s="10"/>
     </row>
-    <row r="112" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="E112" s="10"/>
@@ -23911,50 +26851,6 @@
       <c r="AB998" s="10"/>
       <c r="AC998" s="10"/>
       <c r="AD998" s="10"/>
-    </row>
-    <row r="999" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B999" s="10"/>
-      <c r="C999" s="10"/>
-      <c r="E999" s="10"/>
-      <c r="K999" s="10"/>
-      <c r="N999" s="10"/>
-      <c r="O999" s="10"/>
-      <c r="P999" s="10"/>
-      <c r="Q999" s="10"/>
-      <c r="S999" s="10"/>
-      <c r="T999" s="10"/>
-      <c r="U999" s="10"/>
-      <c r="V999" s="11"/>
-      <c r="W999" s="10"/>
-      <c r="X999" s="10"/>
-      <c r="Y999" s="11"/>
-      <c r="Z999" s="10"/>
-      <c r="AA999" s="11"/>
-      <c r="AB999" s="10"/>
-      <c r="AC999" s="10"/>
-      <c r="AD999" s="10"/>
-    </row>
-    <row r="1000" spans="2:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1000" s="10"/>
-      <c r="C1000" s="10"/>
-      <c r="E1000" s="10"/>
-      <c r="K1000" s="10"/>
-      <c r="N1000" s="10"/>
-      <c r="O1000" s="10"/>
-      <c r="P1000" s="10"/>
-      <c r="Q1000" s="10"/>
-      <c r="S1000" s="10"/>
-      <c r="T1000" s="10"/>
-      <c r="U1000" s="10"/>
-      <c r="V1000" s="11"/>
-      <c r="W1000" s="10"/>
-      <c r="X1000" s="10"/>
-      <c r="Y1000" s="11"/>
-      <c r="Z1000" s="10"/>
-      <c r="AA1000" s="11"/>
-      <c r="AB1000" s="10"/>
-      <c r="AC1000" s="10"/>
-      <c r="AD1000" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -24002,10 +26898,128 @@
     <hyperlink ref="R15" r:id="rId42"/>
     <hyperlink ref="J15" r:id="rId43"/>
     <hyperlink ref="J16" r:id="rId44"/>
-    <hyperlink ref="R17" r:id="rId45"/>
-    <hyperlink ref="J17" r:id="rId46"/>
+    <hyperlink ref="J18" r:id="rId45"/>
+    <hyperlink ref="R18" r:id="rId46"/>
+    <hyperlink ref="J19" r:id="rId47"/>
+    <hyperlink ref="R19" r:id="rId48"/>
+    <hyperlink ref="J20" r:id="rId49"/>
+    <hyperlink ref="R20" r:id="rId50"/>
+    <hyperlink ref="J21" r:id="rId51"/>
+    <hyperlink ref="R21" r:id="rId52"/>
+    <hyperlink ref="J22" r:id="rId53"/>
+    <hyperlink ref="J23" r:id="rId54"/>
+    <hyperlink ref="R22" r:id="rId55"/>
+    <hyperlink ref="J24" r:id="rId56"/>
+    <hyperlink ref="R24" r:id="rId57"/>
+    <hyperlink ref="J26" r:id="rId58"/>
+    <hyperlink ref="J27" r:id="rId59"/>
+    <hyperlink ref="R27" r:id="rId60"/>
+    <hyperlink ref="J29" r:id="rId61"/>
+    <hyperlink ref="R29" r:id="rId62"/>
+    <hyperlink ref="R31" r:id="rId63"/>
+    <hyperlink ref="R32" r:id="rId64"/>
+    <hyperlink ref="R33" r:id="rId65"/>
+    <hyperlink ref="J34" r:id="rId66"/>
+    <hyperlink ref="J33" r:id="rId67"/>
+    <hyperlink ref="R34" r:id="rId68"/>
+    <hyperlink ref="J35" r:id="rId69"/>
+    <hyperlink ref="J36" r:id="rId70"/>
+    <hyperlink ref="J37" r:id="rId71"/>
+    <hyperlink ref="R37" r:id="rId72"/>
+    <hyperlink ref="R36" r:id="rId73"/>
+    <hyperlink ref="R35" r:id="rId74"/>
+    <hyperlink ref="J38" r:id="rId75"/>
+    <hyperlink ref="J39" r:id="rId76"/>
+    <hyperlink ref="J40" r:id="rId77"/>
+    <hyperlink ref="R40" r:id="rId78"/>
+    <hyperlink ref="J41" r:id="rId79"/>
+    <hyperlink ref="R41" r:id="rId80"/>
+    <hyperlink ref="J42" r:id="rId81"/>
+    <hyperlink ref="R42" r:id="rId82"/>
+    <hyperlink ref="R43" r:id="rId83"/>
+    <hyperlink ref="J43" r:id="rId84"/>
+    <hyperlink ref="R44" r:id="rId85"/>
+    <hyperlink ref="J44" r:id="rId86"/>
+    <hyperlink ref="J45" r:id="rId87"/>
+    <hyperlink ref="R45" r:id="rId88"/>
+    <hyperlink ref="J46" r:id="rId89"/>
+    <hyperlink ref="J47" r:id="rId90"/>
+    <hyperlink ref="R47" r:id="rId91"/>
+    <hyperlink ref="J48" r:id="rId92"/>
+    <hyperlink ref="D49" r:id="rId93"/>
+    <hyperlink ref="J49" r:id="rId94"/>
+    <hyperlink ref="R49" r:id="rId95"/>
+    <hyperlink ref="J50" r:id="rId96"/>
+    <hyperlink ref="R50" r:id="rId97"/>
+    <hyperlink ref="D51" r:id="rId98"/>
+    <hyperlink ref="J51" r:id="rId99"/>
+    <hyperlink ref="R51" r:id="rId100"/>
+    <hyperlink ref="J52" r:id="rId101"/>
+    <hyperlink ref="J53" r:id="rId102"/>
+    <hyperlink ref="J54" r:id="rId103"/>
+    <hyperlink ref="J55" r:id="rId104"/>
+    <hyperlink ref="R55" r:id="rId105"/>
+    <hyperlink ref="J56" r:id="rId106"/>
+    <hyperlink ref="J57" r:id="rId107"/>
+    <hyperlink ref="J58" r:id="rId108"/>
+    <hyperlink ref="R58" r:id="rId109"/>
+    <hyperlink ref="J59" r:id="rId110"/>
+    <hyperlink ref="J60" r:id="rId111"/>
+    <hyperlink ref="R59" r:id="rId112"/>
+    <hyperlink ref="R60" r:id="rId113"/>
+    <hyperlink ref="R61" r:id="rId114"/>
+    <hyperlink ref="R62" r:id="rId115"/>
+    <hyperlink ref="J61" r:id="rId116"/>
+    <hyperlink ref="J62" r:id="rId117"/>
+    <hyperlink ref="U63" r:id="rId118" display="www.absolutionhouse.com"/>
+    <hyperlink ref="U84" r:id="rId119" display="www.soberhomes.com"/>
+    <hyperlink ref="U85" r:id="rId120" display="www.safehavensoberhousemn.com"/>
+    <hyperlink ref="U83" r:id="rId121" display="www.redemptionhouse.net"/>
+    <hyperlink ref="U82" r:id="rId122" display="www.sobermn.com"/>
+    <hyperlink ref="U81" r:id="rId123" display="www.new-spirit-homes.com"/>
+    <hyperlink ref="U80" r:id="rId124" display="www.optimistcrew.com"/>
+    <hyperlink ref="U76" r:id="rId125" display="www.houseofgrace.site"/>
+    <hyperlink ref="U71" r:id="rId126" display="www.centralvillagehouse.com"/>
+    <hyperlink ref="U70" r:id="rId127" display="www.BuffaloSoberHouse.com"/>
+    <hyperlink ref="U69" r:id="rId128" display="www.bsmsoberhouses.com"/>
+    <hyperlink ref="U65" r:id="rId129" display="www.theanthonyhouse.com"/>
+    <hyperlink ref="U64" r:id="rId130" display="www.alliedsoberliving.com"/>
+    <hyperlink ref="U66" r:id="rId131" display="www.truenorthrecovery.org"/>
+    <hyperlink ref="U86" r:id="rId132" display="www.secondstephousing.com"/>
+    <hyperlink ref="U90" r:id="rId133" display="www.stpaulsoberliving.com"/>
+    <hyperlink ref="U92" r:id="rId134" display="www.sfour.org"/>
+    <hyperlink ref="U100" r:id="rId135" display="www.facebook.com/lakestsoberliving"/>
+    <hyperlink ref="U99" r:id="rId136" display="www.soberstudents.org"/>
+    <hyperlink ref="U98" r:id="rId137" display="www.trinitysoberhomes.org"/>
+    <hyperlink ref="U97" r:id="rId138" display="www.transitionalrecoveryinmn.com"/>
+    <hyperlink ref="U96" r:id="rId139" display="www.transition-homes.com"/>
+    <hyperlink ref="U95" r:id="rId140" display="www.theretreat.org"/>
+    <hyperlink ref="D62" r:id="rId141"/>
+    <hyperlink ref="J63" r:id="rId142"/>
+    <hyperlink ref="J85" r:id="rId143"/>
+    <hyperlink ref="J86" r:id="rId144"/>
+    <hyperlink ref="J84" r:id="rId145"/>
+    <hyperlink ref="J83" r:id="rId146"/>
+    <hyperlink ref="J82" r:id="rId147"/>
+    <hyperlink ref="J80" r:id="rId148"/>
+    <hyperlink ref="J76" r:id="rId149"/>
+    <hyperlink ref="J71" r:id="rId150"/>
+    <hyperlink ref="J70" r:id="rId151"/>
+    <hyperlink ref="J69" r:id="rId152"/>
+    <hyperlink ref="J65" r:id="rId153"/>
+    <hyperlink ref="J64" r:id="rId154"/>
+    <hyperlink ref="J66" r:id="rId155"/>
+    <hyperlink ref="J87" r:id="rId156"/>
+    <hyperlink ref="J91" r:id="rId157"/>
+    <hyperlink ref="J93" r:id="rId158"/>
+    <hyperlink ref="J101" r:id="rId159"/>
+    <hyperlink ref="J100" r:id="rId160"/>
+    <hyperlink ref="J99" r:id="rId161"/>
+    <hyperlink ref="J98" r:id="rId162"/>
+    <hyperlink ref="J97" r:id="rId163"/>
+    <hyperlink ref="J96" r:id="rId164"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId165"/>
 </worksheet>
 </file>